--- a/stepik/00_statistick/notepad.xlsx
+++ b/stepik/00_statistick/notepad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3prg\00_solo_github_notepad\stepik\00_statistick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD481A0E-5851-4F2B-AB05-24B2BB14C8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734E0C8-80FB-43AF-9D47-95E41BDE545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5B729B8-E4F3-44D8-A22C-E87993C76834}"/>
   </bookViews>
@@ -24,12 +24,104 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>https://stepik.org/lesson/8095/step/7?auth=registration&amp;unit=1371</t>
+  </si>
+  <si>
+    <t>Генеральная совокупность</t>
+  </si>
+  <si>
+    <t>Простая случайная выборка</t>
+  </si>
+  <si>
+    <t>Simple random sample</t>
+  </si>
+  <si>
+    <t>Стратифицированная выборка</t>
+  </si>
+  <si>
+    <t>Stratified sample</t>
+  </si>
+  <si>
+    <t>делим на группы, а потом вариант 1 из груп, например мужчины и женщины</t>
+  </si>
+  <si>
+    <t>Груповая выборка</t>
+  </si>
+  <si>
+    <t>Group sample</t>
+  </si>
+  <si>
+    <t>делим на группы, выбираем случайным образом групы а потом вариант 1, например районы города, желательно выделять групы без перекосов</t>
+  </si>
+  <si>
+    <t>Качественные и количественные</t>
+  </si>
+  <si>
+    <t>Качественные</t>
+  </si>
+  <si>
+    <t>Номинативные</t>
+  </si>
+  <si>
+    <t>непрерывные</t>
+  </si>
+  <si>
+    <t>дискретные</t>
+  </si>
+  <si>
+    <t>пример (рост)</t>
+  </si>
+  <si>
+    <t>к-во детей (1,2,3,4)</t>
+  </si>
+  <si>
+    <t>используется для деления на группы, например (1 - ж, 2- м)</t>
+  </si>
+  <si>
+    <t>ети цифри как labels они не несут мат информации</t>
+  </si>
+  <si>
+    <t>Ранговые</t>
+  </si>
+  <si>
+    <t>не совсем Номинативные, например ранг бегунов, из можно ставнивать, но сказать на сколько он быстрее нельзя</t>
+  </si>
+  <si>
+    <t>Количественная -&gt; Номинативная</t>
+  </si>
+  <si>
+    <t>рост -&gt; разделить на выше среднего и ниже среднего</t>
+  </si>
+  <si>
+    <t>1.2. Выборки</t>
+  </si>
+  <si>
+    <t>1.3. Переменные</t>
+  </si>
+  <si>
+    <t>Основные переменные</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -53,13 +145,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -372,12 +467,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB25F3-7287-41C7-9DF8-CED80B094AF6}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{EA309556-9467-4F9F-BD87-2055848A9B0F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stepik/00_statistick/notepad.xlsx
+++ b/stepik/00_statistick/notepad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3prg\00_solo_github_notepad\stepik\00_statistick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734E0C8-80FB-43AF-9D47-95E41BDE545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7678712-D980-4D0B-8A0D-39B06A1897F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5B729B8-E4F3-44D8-A22C-E87993C76834}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{A5B729B8-E4F3-44D8-A22C-E87993C76834}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>https://stepik.org/lesson/8095/step/7?auth=registration&amp;unit=1371</t>
   </si>
@@ -103,6 +103,102 @@
   </si>
   <si>
     <t>Основные переменные</t>
+  </si>
+  <si>
+    <t>1.4.</t>
+  </si>
+  <si>
+    <t>https://stepik.org/media/attachments/lesson/8075/%D0%A1%D1%82%D0%B0%D1%82%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B0%20-%20%D0%9C%D0%B5%D1%80%D1%8B%20%D1%86%D0%B5%D0%BD%D1%82%D1%80%D0%B0%D0%BB%D1%8C%D0%BD%D0%BE%D0%B9%20%D1%82%D0%B5%D0%BD%D0%B4%D0%B5%D0%BD%D1%86%D0%B8%D0%B8.pdf</t>
+  </si>
+  <si>
+    <t>Мода (Mode) распределения</t>
+  </si>
+  <si>
+    <t>Медиана</t>
+  </si>
+  <si>
+    <t>Среднее значение</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>гистограма частот</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>Если скошеная гистограма или несколько мод или выбросы то среднее значение - заблуждение</t>
+  </si>
+  <si>
+    <t>1.5.</t>
+  </si>
+  <si>
+    <t>Мера изменчивости</t>
+  </si>
+  <si>
+    <t>Max-Min</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Дисперсия</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Сум((Xi-Xсред)квадр)/N</t>
+  </si>
+  <si>
+    <t>Сигма=квадр корень из дисперсии</t>
+  </si>
+  <si>
+    <t>Сигма - генер выборка, sd = выборка</t>
+  </si>
+  <si>
+    <t>прим - делить на N-1</t>
+  </si>
+  <si>
+    <t>связано с степени свободы</t>
+  </si>
+  <si>
+    <t>1.6.</t>
+  </si>
+  <si>
+    <t>Квартили распределения и график box-plot</t>
+  </si>
+  <si>
+    <t>три точки, делят на 4 части</t>
+  </si>
+  <si>
+    <t>Пунктиры длина одинакова = 1.5* |1кв-3кв|</t>
+  </si>
+  <si>
+    <t>до последнего значения которое попало в пуктир - линия</t>
+  </si>
+  <si>
+    <t>точки которые выше или ниже - точка</t>
+  </si>
+  <si>
+    <t>Вариант 2</t>
+  </si>
+  <si>
+    <t>тут просто Max и  Min</t>
+  </si>
+  <si>
+    <t>1.7.</t>
+  </si>
+  <si>
+    <t>https://stepik.org/media/attachments/lesson/9166/%D0%A1%D1%82%D0%B0%D1%82%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B0%20-%20%D0%9D%D0%BE%D1%80%D0%BC%D0%B0%D0%BB%D1%8C%D0%BD%D0%BE%D0%B5%20%D1%80%D0%B0%D1%81%D0%BF%D1%80%D0%B5%D0%B4%D0%B5%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5.pdf</t>
+  </si>
+  <si>
+    <t>https://stepik.org/media/attachments/lesson/9294/%D0%A1%D1%82%D0%B0%D1%82%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B0%20-%20Box-plot.pdf</t>
   </si>
 </sst>
 </file>
@@ -149,9 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -168,6 +265,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1495426</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>189617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58486BBA-80FB-40AB-9613-D11C5CF9E957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228976" y="7181850"/>
+          <a:ext cx="3105150" cy="2723267"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81885A26-F8F8-4737-AB56-FD29F96B8824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="5025766"/>
+          <a:ext cx="1933575" cy="1596159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>47257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35DCDB50-AFEE-4B2D-A409-C096D753E1A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686176" y="10668000"/>
+          <a:ext cx="1981200" cy="2142757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>752381</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9232EA-2D2C-41F0-A16E-F7035154B222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="12954000"/>
+          <a:ext cx="752381" cy="1676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,17 +745,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB25F3-7287-41C7-9DF8-CED80B094AF6}">
-  <dimension ref="A2:I25"/>
+  <dimension ref="A2:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -562,40 +840,172 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{EA309556-9467-4F9F-BD87-2055848A9B0F}"/>
+    <hyperlink ref="D55" r:id="rId2" xr:uid="{4374316A-D410-4723-84FC-2B0A1BFEBAE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/stepik/00_statistick/notepad.xlsx
+++ b/stepik/00_statistick/notepad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3prg\00_solo_github_notepad\stepik\00_statistick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7678712-D980-4D0B-8A0D-39B06A1897F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867440D-DBD1-4E3A-B97F-0A60C162CEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{A5B729B8-E4F3-44D8-A22C-E87993C76834}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>https://stepik.org/lesson/8095/step/7?auth=registration&amp;unit=1371</t>
   </si>
@@ -108,9 +108,6 @@
     <t>1.4.</t>
   </si>
   <si>
-    <t>https://stepik.org/media/attachments/lesson/8075/%D0%A1%D1%82%D0%B0%D1%82%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B0%20-%20%D0%9C%D0%B5%D1%80%D1%8B%20%D1%86%D0%B5%D0%BD%D1%82%D1%80%D0%B0%D0%BB%D1%8C%D0%BD%D0%BE%D0%B9%20%D1%82%D0%B5%D0%BD%D0%B4%D0%B5%D0%BD%D1%86%D0%B8%D0%B8.pdf</t>
-  </si>
-  <si>
     <t>Мода (Mode) распределения</t>
   </si>
   <si>
@@ -195,10 +192,49 @@
     <t>1.7.</t>
   </si>
   <si>
-    <t>https://stepik.org/media/attachments/lesson/9166/%D0%A1%D1%82%D0%B0%D1%82%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B0%20-%20%D0%9D%D0%BE%D1%80%D0%BC%D0%B0%D0%BB%D1%8C%D0%BD%D0%BE%D0%B5%20%D1%80%D0%B0%D1%81%D0%BF%D1%80%D0%B5%D0%B4%D0%B5%D0%BB%D0%B5%D0%BD%D0%B8%D0%B5.pdf</t>
-  </si>
-  <si>
-    <t>https://stepik.org/media/attachments/lesson/9294/%D0%A1%D1%82%D0%B0%D1%82%D0%B8%D1%81%D1%82%D0%B8%D0%BA%D0%B0%20-%20Box-plot.pdf</t>
+    <t>Z стандартизация</t>
+  </si>
+  <si>
+    <t>Avg = 0</t>
+  </si>
+  <si>
+    <t>Стандартное отклонение(смигма дисперсия) = 1</t>
+  </si>
+  <si>
+    <t>Mz</t>
+  </si>
+  <si>
+    <t>Dz</t>
+  </si>
+  <si>
+    <t>Правило 2х сигма и т.д.</t>
+  </si>
+  <si>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>сколько наблюдений больше 154?</t>
+  </si>
+  <si>
+    <t>таблица Z</t>
+  </si>
+  <si>
+    <t>https://gallery.shinyapps.io/dist_calc/</t>
+  </si>
+  <si>
+    <t>Калькулятор</t>
+  </si>
+  <si>
+    <t>1.8.</t>
+  </si>
+  <si>
+    <t>https://gallery.shinyapps.io/CLT_mean/</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Central Limit Theorem for Means</t>
   </si>
 </sst>
 </file>
@@ -248,7 +284,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -437,6 +473,182 @@
         <a:xfrm>
           <a:off x="3686175" y="12954000"/>
           <a:ext cx="752381" cy="1676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>496743</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142020</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>189950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FCE20E-E444-4720-B73A-6F30DAC3D0C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6535593" y="7219950"/>
+          <a:ext cx="2693277" cy="1733000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437913</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>180849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0F4A6A-82BE-4E80-978D-4F32E45B5ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="15554325"/>
+          <a:ext cx="1895238" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>188613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228083</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5356C506-8A45-422A-8C53-51732556572C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="16952613"/>
+          <a:ext cx="2904608" cy="963741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>321598</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104315</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>28071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3312DF17-3DB9-411D-A146-FDE36998A61F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4007773" y="18449925"/>
+          <a:ext cx="3354592" cy="3676146"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB25F3-7287-41C7-9DF8-CED80B094AF6}">
-  <dimension ref="A2:I80"/>
+  <dimension ref="A2:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,135 +1087,194 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
         <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>38</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
         <v>42</v>
-      </c>
-      <c r="E35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
         <v>45</v>
-      </c>
-      <c r="E37" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>57</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" t="s">
         <v>49</v>
-      </c>
-      <c r="G57" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G69" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G70" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C80" t="s">
         <v>55</v>
       </c>
       <c r="D80" t="s">
         <v>56</v>
+      </c>
+      <c r="H80" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" t="s">
+        <v>59</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>65</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{EA309556-9467-4F9F-BD87-2055848A9B0F}"/>
-    <hyperlink ref="D55" r:id="rId2" xr:uid="{4374316A-D410-4723-84FC-2B0A1BFEBAE3}"/>
+    <hyperlink ref="D119" r:id="rId2" xr:uid="{4ED63A30-F163-49E0-9C25-BC60E3E1B1FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
